--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqua9\Desktop\테스트케이스 및 테스트결과보고서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23256" windowHeight="12108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
     <sheet name="테스트케이스" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +57,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>결함일 경우, Redmine 이슈번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 TC 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,21 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 전에 되어 있어야 하는 것
-예) 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 테스트 케이스가 검증하고자 하는 것
-예) 입력 기능에 대한 에러 검출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 입력값
-예) 소프트웨어공학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Usecase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,46 +101,405 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(순차적) 테스트 실행 절차
-예)
-1. XXX를 클릭한다.
+    <t>TestCase 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;변경 이력&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC002</t>
+  </si>
+  <si>
+    <t>UC003</t>
+  </si>
+  <si>
+    <t>UC004</t>
+  </si>
+  <si>
+    <t>UC005</t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC007</t>
+  </si>
+  <si>
+    <t>UC008</t>
+  </si>
+  <si>
+    <t>UC009</t>
+  </si>
+  <si>
+    <t>UC010</t>
+  </si>
+  <si>
+    <t>UC011</t>
+  </si>
+  <si>
+    <t>UC012</t>
+  </si>
+  <si>
+    <t>UC013</t>
+  </si>
+  <si>
+    <t>UC014</t>
+  </si>
+  <si>
+    <t>UC015</t>
+  </si>
+  <si>
+    <t>UC016</t>
+  </si>
+  <si>
+    <t>UC017</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>UC018</t>
+  </si>
+  <si>
+    <t>UC019</t>
+  </si>
+  <si>
+    <t>UC020</t>
+  </si>
+  <si>
+    <t>과목이 등록되는 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. + 버튼을 클릭한다.      
 2. 입력값을 넣는다.
-3. 확인을 클릭한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016. 03. 24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예) 입력 성공 메시지 출력
-     - "성공하였습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCase 이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;변경 이력&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Usecase ID
-(테스트 대상 기능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testcase 일련번호
-예) TC-0001</t>
+3. V 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학
+한혁수 ; 월요일/3-5 ; 2017/1 ; 수업시간 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016. 06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 
+월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력되지 않은 사항이 있습니다.'
+경고창이 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 수정되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 
+화요일/2-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록된 과목 리스트를 더블클릭한다.
+2. 변경값 입력
+3. V 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">결함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 삭제되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록된 과목 리스트를 더블클릭한다.
+2. 휴지통 버튼을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목 List에 삭제하려는 항목이
+삭제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List가 등록되는 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 한 개 이상 등록된 기본 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 한 개 이상 등록된 기본 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 등록되어 있지 않아도 To Do List가
+등록되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO명을 입력하지 않았을 때 경고창이 
+발생하는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 과목 List를 더블클릭 했을 때 
+수정창이 뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List 목록을 더블 클릭 했을 때 수정창이 뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List 목록을 한 번 클릭 했을 때 
+입력한 세부사항이 To Do List 세부사항에
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>To Do List 등록시 중요여부를 '중요' 로 
+했을 때 List가 파란색으로 변하는지 확인
+한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List 등록시 중요여부를 '매우중요' 로 
+했을 때 List가 빨간색으로 변하는지 확인
+한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 한 개 이상 등록된 기본 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List 수정시 완료여부를 체크했을 때
+기본 화면에서 완료 여부를 체크했을 때 
+완료항목만 뜨는지를 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 한 개 이상 등록된 기본 화면,
+To Do List가 한 개 이상 등록된
+기본 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List가 삭제되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List를 '진행 중'으로 했을 때 분류가
+되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List를 '이름'으로 했을 때 분류가
+되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List를 '끝낸 일'로 했을 때 분류가
+되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List를 '완료'로 했을 때 분류가
+되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List를 '마감일'로 했을 때 분류가
+되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '과목'으로 하고, 과목이름
+을 검색을 때 등록된 과목이 나오는지 확인
+한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '과목'으로 하고 할일 이름
+을 검색을 때 등록된 과목이 나오지 않는지
+확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>검색 카테고리를 '할일'로 하고 할일 이름
+을 검색을 때 등록된 할일이 나오는지 확인
+한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '할일'로 하고 과목 이름
+을 검색을 때 등록된 할일이 나오지 않는지
+확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 추천 버튼을 클릭했을 때 팝업 창이 
+나오는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 추천 창에서 결과학인 버튼을 눌렀을 
+때 등록된 할일 중 하나가 뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 추천 창에서 나가기 버튼을 눌렀을 때
+메인화면으로 돌아가는 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 한 개 이상 등록된 기본 화면,
+To Do List가 한 개 이상 등록된
+기본 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,22 +528,6 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -247,6 +566,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -450,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,21 +796,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -511,27 +832,76 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -832,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,172 +1212,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="D4" s="23" t="s">
+    <row r="1" spans="1:4" ht="40.200000000000003">
+      <c r="B1" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="21">
+      <c r="D4" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" customHeight="1"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5">
+      <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5">
+      <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5">
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5">
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5">
+      <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5">
+      <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5">
+      <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
+      <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5">
+      <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5">
+      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5">
+      <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5">
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5">
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5">
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5">
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5">
+      <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5">
+      <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1021,342 +1391,649 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="30.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" customWidth="1"/>
+    <col min="9" max="9" width="8" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31.5">
       <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="21" customFormat="1" ht="69.599999999999994">
+      <c r="B8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="52.2">
+      <c r="B9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" s="21" customFormat="1" ht="69.599999999999994">
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="21" customFormat="1" ht="52.2">
+      <c r="A12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" s="21" customFormat="1" ht="52.2">
+      <c r="B16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="1"/>
+      <c r="C16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="2:11" s="21" customFormat="1" ht="52.2">
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="2:11" s="21" customFormat="1" ht="52.2">
+      <c r="B18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="2:11" s="21" customFormat="1" ht="69.599999999999994">
+      <c r="B19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="2:11" s="21" customFormat="1" ht="52.2">
+      <c r="B20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:11" s="21" customFormat="1">
+      <c r="B21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="2:11" s="21" customFormat="1" ht="52.2">
+      <c r="B27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:11" s="21" customFormat="1" ht="52.2">
+      <c r="B28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="2:11" s="21" customFormat="1" ht="52.2">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="2:11" s="21" customFormat="1" ht="52.2">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23256" windowHeight="12108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="23256" windowHeight="12048" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,12 @@
     <t>과목이 한 개 이상 등록된 기본 화면,
 To Do List가 한 개 이상 등록된
 기본 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 한 개 이상 등록된 기본 화면,
+To Do List가 한 개 이상 등록된
+기본 창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,9 +850,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +869,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,12 +1241,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
       <c r="B7" s="17"/>
@@ -1259,121 +1265,121 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5">
+    <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5">
+    <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5">
+    <row r="19" spans="1:4">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="16.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5">
+    <row r="21" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="16.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5">
+    <row r="24" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5">
+    <row r="25" spans="1:4">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5">
+    <row r="26" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="16.5">
+    <row r="27" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1">
+    <row r="28" spans="1:4" ht="18" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1394,8 +1400,8 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1413,7 +1419,7 @@
     <col min="11" max="11" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1468,572 +1474,574 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="21" customFormat="1" ht="69.599999999999994">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="52.2">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:11" s="20" customFormat="1" ht="52.2">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
+    <row r="10" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" ht="69.599999999999994">
-      <c r="B11" s="22" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="21" customFormat="1" ht="52.2">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:11" s="20" customFormat="1" ht="52.2">
+      <c r="A12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="24" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B14" s="22" t="s">
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="27" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="24" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" s="21" customFormat="1" ht="52.2">
-      <c r="B16" s="22" t="s">
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="52.2">
+      <c r="B16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="24" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" s="21" customFormat="1" ht="52.2">
-      <c r="B17" s="22" t="s">
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="24" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:11" s="21" customFormat="1" ht="52.2">
-      <c r="B18" s="22" t="s">
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="24" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" s="21" customFormat="1" ht="69.599999999999994">
-      <c r="B19" s="22" t="s">
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:11" s="20" customFormat="1" ht="69.599999999999994">
+      <c r="B19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="24" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="2:11" s="21" customFormat="1" ht="52.2">
-      <c r="B20" s="22" t="s">
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="24" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="2:11" s="21" customFormat="1">
-      <c r="B21" s="22" t="s">
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="24" t="s">
+      <c r="E21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B22" s="22" t="s">
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="24" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B23" s="22" t="s">
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="24" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B24" s="22" t="s">
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="24" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B25" s="22" t="s">
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="24" t="s">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B26" s="22" t="s">
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B26" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="24" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="2:11" s="21" customFormat="1" ht="52.2">
-      <c r="B27" s="22" t="s">
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="24" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="2:11" s="21" customFormat="1" ht="52.2">
-      <c r="B28" s="22" t="s">
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="24" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="25"/>
-    </row>
-    <row r="29" spans="2:11" s="21" customFormat="1" ht="52.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="2:11" s="21" customFormat="1" ht="52.2">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
-    </row>
-    <row r="32" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="2:11" s="21" customFormat="1" ht="34.799999999999997">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="B33" s="21"/>
+      <c r="C33" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1208,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1400,8 +1400,8 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="22" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B22" s="21" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1833,9 @@
       <c r="D22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -1843,7 +1845,7 @@
       </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="23" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B23" s="21" t="s">
         <v>37</v>
       </c>
@@ -1853,7 +1855,9 @@
       <c r="D23" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
@@ -1863,7 +1867,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="24" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B24" s="21" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1877,9 @@
       <c r="D24" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -1883,7 +1889,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="25" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B25" s="21" t="s">
         <v>39</v>
       </c>
@@ -1893,7 +1899,9 @@
       <c r="D25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -1903,7 +1911,7 @@
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="26" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B26" s="21" t="s">
         <v>59</v>
       </c>
@@ -1913,7 +1921,9 @@
       <c r="D26" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -1933,7 +1943,9 @@
       <c r="D27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -1953,7 +1965,9 @@
       <c r="D28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -1971,7 +1985,9 @@
       <c r="D29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -1987,7 +2003,9 @@
       <c r="D30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
@@ -1995,7 +2013,7 @@
       <c r="J30" s="23"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="31" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
         <v>109</v>
@@ -2003,7 +2021,9 @@
       <c r="D31" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -2011,7 +2031,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="32" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B32" s="21"/>
       <c r="C32" s="22" t="s">
         <v>110</v>
@@ -2019,7 +2039,9 @@
       <c r="D32" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
@@ -2027,7 +2049,7 @@
       <c r="J32" s="23"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="2:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="33" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
         <v>111</v>
@@ -2035,7 +2057,9 @@
       <c r="D33" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="188">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,18 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색 카테고리를 '과목'으로 하고, 과목이름
-을 검색을 때 등록된 과목이 나오는지 확인
-한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 카테고리를 '과목'으로 하고 할일 이름
-을 검색을 때 등록된 과목이 나오지 않는지
-확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC022</t>
   </si>
   <si>
@@ -456,18 +444,6 @@
   </si>
   <si>
     <t>TC026</t>
-  </si>
-  <si>
-    <t>검색 카테고리를 '할일'로 하고 할일 이름
-을 검색을 때 등록된 할일이 나오는지 확인
-한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 카테고리를 '할일'로 하고 과목 이름
-을 검색을 때 등록된 할일이 나오지 않는지
-확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>할일 추천 버튼을 클릭했을 때 팝업 창이 
@@ -475,17 +451,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>할일 추천 창에서 결과학인 버튼을 눌렀을 
-때 등록된 할일 중 하나가 뜨는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>할일 추천 창에서 나가기 버튼을 눌렀을 때
 메인화면으로 돌아가는 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,6 +465,388 @@
     <t>과목이 한 개 이상 등록된 기본 화면,
 To Do List가 한 개 이상 등록된
 기본 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 등록된 과목 리스트를 더블
+클릭한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학
+한혁수 ; 화요일/2-5 ; 2017/1;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. +버튼을 눌러 ToDoList 등록
+창을 뜨게한다.
+2. 입력값을 넣는다.
+3. V 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표-소프트웨어공학
+마감기한 ; 7월 2일 10시;
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표
+마감기한 ; 7월 2일 10시;
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. +버튼을 눌러 ToDoList 등록
+창을 뜨게한다.
+2. TODO명을 제외한 입력값을 넣는다.
+3. V 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력되지 않은 사항이 있습니다.'
+ 경고창이 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 등록된 ToDo 리스트를 더블
+클릭한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록된 ToDo 리스트를 한번 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장
+(List 색깔이 파란색으로 변함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장
+(List 색깔이 빨간색으로 변함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+중요도 - 매우중요,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록된 ToDo 리스트를 더블
+클릭한다.  
+2. 중요도를 매우중요로 바꾼다.
+3. V 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록된 ToDo 리스트를 더블
+클릭한다.  
+2. 중요도를 중요로 바꾼다.
+3. V 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+중요도 - 중요,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+중요도 - 매우중요,
+완료여부 - 완료체크,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록된 ToDo 리스트를 더블
+클릭한다.  
+2. 완료여부를 완료로 바꾼다.
+3. V 버튼을 클릭한다.
+4.기본창에 있는 완료 체크박스를
+체크한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발표,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 등록된 ToDo 리스트를 더블 
+2. 휴지통 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDoList에서 삭제하고자 하는
+List가 삭제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 - 진행 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정렬 값을 '진행 중'으로 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDoList에서 진행중인 할 일이
+나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 - 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정렬 값을 '이름'으로 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDoList에서 이름 순으로 할 일이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 - 마감일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정렬 값을 '마감일'로 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDoList에서 마감일 순으로 할 일이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 - 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정렬 값을 '완료'로 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDoList에서 완료된 할 일이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬 - 끝낸 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정렬 값을 '끝낸 일'로 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDoList에서 끝낸 할 일이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목 List에 검색결과와 일치하는
+과목이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 과목으로 한다.
+2. 등록된 과목 이름을 입력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 과목으로 한다.
+2. 등록된 할 일 이름을 입력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과와 관련된 과목이
+나타나지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '과목'으로 하고, 과목이름
+을 검색할 때 등록된 과목이 나오는지 확인
+한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '과목'으로 하고 할일 이름
+을 검색할 때 등록된 과목이 나오지 않는지
+확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '과목'으로 하고 등록되어
+있지 않은 과목을 검색할 때 기존 화면이 
+바뀌지 않는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 과목으로 한다.
+2. 등록되어 있지 않은 과목명 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기존 화면이 바뀌지 않는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '할일'로 하고 과목 이름
+을 검색할 때 등록된 할일이 나오지 않는지
+확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 할 일로 한다.
+2. 등록된 할 일 이름을 입력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ToDoList에 검색결과와 일치하는
+할 일이 나타난다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016. 06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 할 일로 한다.
+2. 등록된 과목 이름을 입력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '할 일'로 하고 할 일 이름
+을 검색할 때 등록된 할 일이 나오는지 확인
+한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '할 일'로 하고 등록되어 있지 않은 할 일 이름을 검색할 때 기존 화면이 바뀌지 않는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과와 관련된 할 일이 
+나오지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 그리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 할 일로 한다.
+2. 등록되지 않은 할 일 이름을 입력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 할일 추천 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 일을 추첨할 수 있는 랜덤 
+화면창이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 추천 창에서 결과확인 버튼을 눌렀을 
+때 등록된 할일 중 하나가 뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 결과확인 버튼을 클릭한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추첨된 할 일이 텍스트로 나타난
+다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 나가기 버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램이 종료되지 않고
+기본 화면으로 돌아간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,7 +1557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1397,11 +1746,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1412,8 +1761,8 @@
     <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="30.69921875" customWidth="1"/>
     <col min="6" max="6" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
-    <col min="8" max="8" width="26.59765625" customWidth="1"/>
+    <col min="7" max="7" width="30.19921875" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.69921875" customWidth="1"/>
@@ -1428,19 +1777,25 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1">
       <c r="B7" s="18" t="s">
@@ -1494,7 +1849,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>8</v>
@@ -1538,7 +1893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="10" spans="1:11" s="20" customFormat="1" ht="52.2">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
         <v>41</v>
@@ -1550,11 +1905,21 @@
         <v>87</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
       <c r="B11" s="21" t="s">
@@ -1576,7 +1941,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>78</v>
@@ -1621,7 +1986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
       <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
@@ -1634,16 +1999,26 @@
       <c r="E13" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="26"/>
+      <c r="F13" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+      <c r="K13" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
       <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1654,11 +2029,17 @@
         <v>88</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+        <v>118</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I14" s="26" t="s">
         <v>78</v>
       </c>
@@ -1669,7 +2050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="34.799999999999997">
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="87">
       <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
@@ -1682,14 +2063,24 @@
       <c r="E15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="26"/>
+      <c r="F15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="52.2">
       <c r="B16" s="21" t="s">
@@ -1702,16 +2093,24 @@
         <v>91</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="17" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B17" s="21" t="s">
@@ -1724,18 +2123,26 @@
         <v>92</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="K17" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="20" customFormat="1" ht="87">
       <c r="B18" s="21" t="s">
         <v>32</v>
       </c>
@@ -1748,16 +2155,26 @@
       <c r="E18" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="26"/>
+      <c r="F18" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="69.599999999999994">
+      <c r="K18" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="20" customFormat="1" ht="87">
       <c r="B19" s="21" t="s">
         <v>33</v>
       </c>
@@ -1770,16 +2187,26 @@
       <c r="E19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="26"/>
+      <c r="F19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="K19" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="20" customFormat="1" ht="104.4">
       <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
@@ -1792,14 +2219,24 @@
       <c r="E20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="26"/>
+      <c r="F20" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="24"/>
+      <c r="K20" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B21" s="21" t="s">
@@ -1812,16 +2249,24 @@
         <v>99</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="26"/>
+      <c r="G21" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="24"/>
+      <c r="K21" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B22" s="21" t="s">
@@ -1836,14 +2281,24 @@
       <c r="E22" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J22" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="24"/>
+      <c r="K22" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B23" s="21" t="s">
@@ -1858,14 +2313,24 @@
       <c r="E23" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
+      <c r="F23" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="24"/>
+      <c r="K23" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B24" s="21" t="s">
@@ -1880,14 +2345,24 @@
       <c r="E24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="26"/>
+      <c r="F24" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J24" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="24"/>
+      <c r="K24" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B25" s="21" t="s">
@@ -1902,14 +2377,24 @@
       <c r="E25" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="26"/>
+      <c r="F25" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="24"/>
+      <c r="K25" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B26" s="21" t="s">
@@ -1924,14 +2409,24 @@
       <c r="E26" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="26"/>
+      <c r="F26" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J26" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="27" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B27" s="21" t="s">
@@ -1941,19 +2436,29 @@
         <v>58</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="26"/>
+      <c r="F27" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B28" s="21" t="s">
@@ -1963,109 +2468,229 @@
         <v>93</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="26"/>
+      <c r="F28" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="J28" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="24"/>
+      <c r="K28" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
-        <v>107</v>
-      </c>
+      <c r="C29" s="22"/>
       <c r="D29" s="22" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
+      <c r="F29" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
+      <c r="F30" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
-        <v>110</v>
-      </c>
+      <c r="C32" s="22"/>
       <c r="D32" s="22" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+      <c r="F32" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>98</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
+      <c r="G33" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="20" customFormat="1" ht="52.2">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="23256" windowHeight="12048" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="23256" windowHeight="11988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="191">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,6 +847,16 @@
   <si>
     <t>프로그램이 종료되지 않고
 기본 화면으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>2017.06.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1557,7 +1567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1568,7 +1578,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1615,7 +1625,9 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -1750,7 +1762,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1778,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2494,7 +2506,9 @@
     </row>
     <row r="29" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="D29" s="22" t="s">
         <v>167</v>
       </c>
@@ -2523,7 +2537,7 @@
     <row r="30" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>176</v>
@@ -2553,7 +2567,7 @@
     <row r="31" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>170</v>
@@ -2582,7 +2596,9 @@
     </row>
     <row r="32" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="D32" s="22" t="s">
         <v>177</v>
       </c>
@@ -2611,7 +2627,7 @@
     <row r="33" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>110</v>
@@ -2639,7 +2655,7 @@
     <row r="34" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B34" s="21"/>
       <c r="C34" s="22" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>183</v>
@@ -2667,7 +2683,7 @@
     <row r="35" spans="2:11" s="20" customFormat="1" ht="52.2">
       <c r="B35" s="21"/>
       <c r="C35" s="22" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>111</v>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최소영\Desktop\SE2017_3_mousai\doc\4_ 테스트케이스 및 테스트결과보고서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="23256" windowHeight="11988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="23250" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="207">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,62 +114,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UC001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UC002</t>
-  </si>
-  <si>
-    <t>UC003</t>
-  </si>
-  <si>
-    <t>UC004</t>
-  </si>
-  <si>
-    <t>UC005</t>
-  </si>
-  <si>
-    <t>UC006</t>
-  </si>
-  <si>
-    <t>UC007</t>
-  </si>
-  <si>
-    <t>UC008</t>
-  </si>
-  <si>
-    <t>UC009</t>
-  </si>
-  <si>
-    <t>UC010</t>
-  </si>
-  <si>
-    <t>UC011</t>
-  </si>
-  <si>
-    <t>UC012</t>
-  </si>
-  <si>
-    <t>UC013</t>
-  </si>
-  <si>
-    <t>UC014</t>
-  </si>
-  <si>
-    <t>UC015</t>
-  </si>
-  <si>
-    <t>UC016</t>
-  </si>
-  <si>
-    <t>UC017</t>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
@@ -220,15 +173,6 @@
   </si>
   <si>
     <t>TC020</t>
-  </si>
-  <si>
-    <t>UC018</t>
-  </si>
-  <si>
-    <t>UC019</t>
-  </si>
-  <si>
-    <t>UC020</t>
   </si>
   <si>
     <t>과목이 등록되는 기능이 제대로 시행되는지 확인한다.</t>
@@ -312,20 +256,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">결함 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과목이 삭제되는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 등록된 과목 리스트를 더블클릭한다.
 2. 휴지통 버튼을 누른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -859,11 +795,173 @@
     <t>2017.06.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC005
+UC0010
+UC13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC007
+UC0010
+UC013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC011
+UC010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC010
+UC012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC010
+UC013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC010
+UC012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료표시를 체크하면 전체목록이 보이는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료표시 체크를 해제하면 완료 된 항목이  숨겨지는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목이 한 개 이상 등록된 기본 화면,
+To Do List가 한 개 이상 등록된
+기본 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료표시 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료표시 체크 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 완료표시를 체크한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 완료표시를 체크를 해제 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 ToDoList 항목이 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중인 항목만 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1567,7 +1665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1581,19 +1679,19 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="15.59765625" customWidth="1"/>
+    <col min="1" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.200000000000003">
+    <row r="1" spans="1:4" ht="41.25">
       <c r="B1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
     <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:4" ht="20.25">
       <c r="D4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1610,7 +1708,7 @@
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1">
+    <row r="8" spans="1:4" ht="17.25" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +1724,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1740,7 +1838,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="17.25" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1758,29 +1856,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="30.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="30.19921875" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
     <col min="9" max="9" width="8" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.69921875" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="31.5">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1798,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1841,872 +1939,955 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
+    <row r="8" spans="1:11" s="20" customFormat="1" ht="66">
       <c r="B8" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="20" customFormat="1" ht="66">
+      <c r="B9" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" ht="49.5">
+      <c r="B10" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="52.2">
-      <c r="B9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="52.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="20" customFormat="1" ht="66">
       <c r="B11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="24" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" ht="52.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="20" customFormat="1" ht="49.5">
       <c r="A12" s="20" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="66">
       <c r="B13" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" s="22" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="69.599999999999994">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" ht="66">
       <c r="B14" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="87">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="20" customFormat="1" ht="82.5">
       <c r="B15" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="52.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="66">
       <c r="B16" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="22" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="20" customFormat="1" ht="52.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="20" customFormat="1" ht="66">
       <c r="B17" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="22" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="I17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="20" customFormat="1" ht="82.5">
+      <c r="B18" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="87">
-      <c r="B18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>137</v>
-      </c>
       <c r="H18" s="22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="87">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="20" customFormat="1" ht="82.5">
       <c r="B19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="104.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="20" customFormat="1" ht="115.5">
       <c r="B20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" s="22" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="20" customFormat="1" ht="52.2">
+    </row>
+    <row r="21" spans="2:11" s="20" customFormat="1" ht="66">
       <c r="B21" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B22" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B23" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B24" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B25" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B26" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="20" customFormat="1" ht="82.5">
+      <c r="B27" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="E27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="20" customFormat="1" ht="82.5">
+      <c r="B28" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="E28" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="24" t="s">
+    </row>
+    <row r="29" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B29" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="22" t="s">
+      <c r="G29" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="H29" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="24" t="s">
+    </row>
+    <row r="30" spans="2:11" s="20" customFormat="1" ht="82.5">
+      <c r="B30" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B31" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B32" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="I32" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B28" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B33" s="21"/>
+    </row>
+    <row r="33" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B33" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="C33" s="22" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B34" s="21"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B34" s="21" t="s">
+        <v>189</v>
+      </c>
       <c r="C34" s="22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="20" customFormat="1" ht="52.2">
-      <c r="B35" s="21"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="20" customFormat="1" ht="66">
+      <c r="B35" s="21" t="s">
+        <v>190</v>
+      </c>
       <c r="C35" s="22" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>120</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="66">
+      <c r="B36" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="66">
+      <c r="B37" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="K38" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="23250" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="23250" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="230">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>버전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -957,12 +953,110 @@
     <t>UC019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>서화진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-001 ,UC-007,UC-012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-014,UC-016,UC-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-015,UC-010,UC-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-008,UC-009,UC-013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성필,김세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류검토, 최종수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UC-002 ,UC-004 ,UC-005 ,UC-006 ,UC-011,
+UC-017,UC-018 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1137,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1246,7 +1356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,15 +1387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,6 +1430,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1675,96 +1797,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.25">
-      <c r="B1" s="16" t="s">
-        <v>20</v>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
     <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
     <row r="4" spans="1:4" ht="20.25">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
-      <c r="B7" s="17"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="49.5">
+      <c r="A9" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
@@ -1858,9 +2036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1896,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1904,990 +2082,990 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="66">
+      <c r="B8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="66">
+      <c r="B9" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="D9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="H9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="49.5">
+      <c r="B10" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="66">
+      <c r="B11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="49.5">
+      <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="B12" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="66">
+      <c r="B13" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="66">
+      <c r="B14" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="82.5">
+      <c r="B15" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="66">
+      <c r="B16" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B9" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="49.5">
-      <c r="B10" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
+      <c r="H16" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="J16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B11" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="26" t="s">
+      <c r="K16" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B17" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="17" customFormat="1" ht="82.5">
+      <c r="B18" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="17" customFormat="1" ht="82.5">
+      <c r="B19" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="17" customFormat="1" ht="115.5">
+      <c r="B20" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B21" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B22" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B23" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B24" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B25" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B26" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="17" customFormat="1" ht="82.5">
+      <c r="B27" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="17" customFormat="1" ht="82.5">
+      <c r="B28" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B29" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="17" customFormat="1" ht="82.5">
+      <c r="B30" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B31" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B32" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B33" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B34" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="17" customFormat="1" ht="66">
+      <c r="B35" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" ht="49.5">
-      <c r="A12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="26" t="s">
+      <c r="J35" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="66">
+      <c r="B36" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B13" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B14" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="82.5">
-      <c r="B15" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B16" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B17" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B18" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B19" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="115.5">
-      <c r="B20" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="J36" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="66">
+      <c r="B37" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B21" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B22" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B23" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B24" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B25" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B26" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B27" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B28" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B29" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B30" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B31" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B32" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B33" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B34" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B35" s="21" t="s">
+      <c r="F37" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="66">
-      <c r="B36" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="66">
-      <c r="B37" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="K38" s="24"/>
+      <c r="K38" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="23250" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="23250" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="302">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>Test Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt; 팀 명&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,26 +202,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과목이 입력되지 않았을 때 경고창이 
-뜨는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트웨어공학, 
-월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력되지 않은 사항이 있습니다.'
 경고창이 뜬다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결함 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,16 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과목이 등록되어 있지 않아도 To Do List가
-등록되는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO명을 입력하지 않았을 때 경고창이 
-발생하는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록된 과목 List를 더블클릭 했을 때 
 수정창이 뜨는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,10 +384,6 @@
     <t>소프트웨어공학
 한혁수 ; 화요일/2-5 ; 2017/1;
 수업시작 5분전 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,12 +417,6 @@
   <si>
     <t>발표
 마감기한 ; 7월 2일 10시;
-드레스코드 정장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표
-7월 2일 10시,
 드레스코드 정장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,19 +754,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UC001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UC003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -892,10 +842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료표시를 체크하면 전체목록이 보이는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,10 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1049,6 +991,374 @@
     <t xml:space="preserve">UC-002 ,UC-004 ,UC-005 ,UC-006 ,UC-011,
 UC-017,UC-018 
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; Mousai&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명이 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수가 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일/시간이 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도/학기가 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부사항 입력되지 않았을 때 경고창이 
+뜨는지 않는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, 
+월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 
+월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학,한혁수, , 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 한혁수,월요일/3-5, , 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 한혁수
+월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 추천을 눌렀을 때 할 일이 랜덤으로 나오는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 해논 시간에 알림이 울리는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림기능 설정
+6월 6일 8시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Todolist의 항목하나를 클릭한다.
+2.원하는 시간에 알림을 설정한다
+3.V버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림창이 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '과목'으로 하고, 공란인 상태에서 검색하면 전체 과목이 나오는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 과목으로 한다.
+2. 찾기 버튼을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목 List에 전체 과목이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '할일'로 하고 공란을 입력한 상태로 검색을하면 전체 할일이 나오는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 할 일로 한다.
+2. 검색버튼을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 숫자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학1, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학1
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 대문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 소문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 대문자와 숫자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A1, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A1
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 소문자와 숫자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a1, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016. 06.07</t>
+  </si>
+  <si>
+    <t>알림기능을 꺼놓아도 할일등록이 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발표;;소프트웨어공학
+마감기한:7월2일10시;;
+실제마감일:7월2일10시
+알림기능 꺼짐;;진행중;;매우중요
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+7월 2일 10시,
+알림기능 0월0일0시
+중요도 - 매우중요,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.07</t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC007</t>
+  </si>
+  <si>
+    <t>UC006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List가 등록시 과목 선택을 공란으로 선택해도 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 숫자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 알파벳 대문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 알파벳 소문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO명을 입력하지 않았을 때 경고창이 
+발생하는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 알파벳대문자와숫 자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명 알파벳 소문자와 숫자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표1,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표A,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표a,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표A1,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표a1,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a1
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>TC047</t>
+  </si>
+  <si>
+    <t>TC048</t>
+  </si>
+  <si>
+    <t>TC049</t>
+  </si>
+  <si>
+    <t>UC017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC015
+UC006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1056,7 +1366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,9 +1739,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,6 +1758,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,226 +2116,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="51.125" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="41.25">
+    <row r="1" spans="1:4" ht="41.25" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
-    <row r="4" spans="1:4" ht="20.25">
-      <c r="D4" s="16" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="49.5">
-      <c r="A9" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="28" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B11" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="C12" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1">
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2034,14 +2353,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -2056,28 +2375,28 @@
     <col min="11" max="11" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2085,9 +2404,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>0</v>
@@ -2096,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>2</v>
@@ -2117,960 +2436,1557 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="66">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="19" t="s">
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="66">
-      <c r="B9" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="I14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="H20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="49.5">
-      <c r="B10" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="66">
-      <c r="B11" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="J20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="49.5">
-      <c r="A12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="66">
-      <c r="B13" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" ht="66">
-      <c r="B14" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" ht="82.5">
-      <c r="B15" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="66">
-      <c r="B16" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B17" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="17" customFormat="1" ht="82.5">
-      <c r="B18" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="17" customFormat="1" ht="82.5">
-      <c r="B19" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="17" customFormat="1" ht="115.5">
-      <c r="B20" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B21" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="17" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B37" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H38" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B22" s="18" t="s">
+      <c r="I38" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B46" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B47" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B48" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B23" s="18" t="s">
+      <c r="C48" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B49" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B51" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B52" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B53" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B24" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B25" s="18" t="s">
+    </row>
+    <row r="54" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B26" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="17" customFormat="1" ht="82.5">
-      <c r="B27" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="17" customFormat="1" ht="82.5">
-      <c r="B28" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B29" s="18" t="s">
+      <c r="E54" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="17" customFormat="1" ht="82.5">
-      <c r="B30" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B31" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B32" s="18" t="s">
+      <c r="G54" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="H54" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B33" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B34" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="17" customFormat="1" ht="66">
-      <c r="B35" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="66">
-      <c r="B36" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="66">
-      <c r="B37" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="K38" s="21"/>
+      <c r="J54" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B55" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I13 I24:I28">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
+++ b/doc/4_ 테스트케이스 및 테스트결과보고서/테스트케이스_작성양식.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="302">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,19 +78,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt; 팀 명&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>버전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,26 +202,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과목이 입력되지 않았을 때 경고창이 
-뜨는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트웨어공학, 
-월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력되지 않은 사항이 있습니다.'
 경고창이 뜬다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결함 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,16 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과목이 등록되어 있지 않아도 To Do List가
-등록되는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO명을 입력하지 않았을 때 경고창이 
-발생하는지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록된 과목 List를 더블클릭 했을 때 
 수정창이 뜨는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,10 +384,6 @@
     <t>소프트웨어공학
 한혁수 ; 화요일/2-5 ; 2017/1;
 수업시작 5분전 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,12 +417,6 @@
   <si>
     <t>발표
 마감기한 ; 7월 2일 10시;
-드레스코드 정장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표
-7월 2일 10시,
 드레스코드 정장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,19 +754,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UC001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UC003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -896,10 +842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료표시를 체크하면 전체목록이 보이는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,15 +888,477 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서화진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-001 ,UC-007,UC-012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-014,UC-016,UC-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-015,UC-010,UC-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-008,UC-009,UC-013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성필,김세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류검토, 최종수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UC-002 ,UC-004 ,UC-005 ,UC-006 ,UC-011,
+UC-017,UC-018 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; Mousai&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명이 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수가 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일/시간이 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도/학기가 입력되지 않았을 때 경고창이 
+뜨는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부사항 입력되지 않았을 때 경고창이 
+뜨는지 않는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, 
+월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 
+월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학,한혁수, , 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 한혁수,월요일/3-5, , 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학, 한혁수
+월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 추천을 눌렀을 때 할 일이 랜덤으로 나오는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 해논 시간에 알림이 울리는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림기능 설정
+6월 6일 8시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Todolist의 항목하나를 클릭한다.
+2.원하는 시간에 알림을 설정한다
+3.V버튼을 클릭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림창이 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '과목'으로 하고, 공란인 상태에서 검색하면 전체 과목이 나오는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 과목으로 한다.
+2. 찾기 버튼을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목 List에 전체 과목이 나타난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 카테고리를 '할일'로 하고 공란을 입력한 상태로 검색을하면 전체 할일이 나오는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검색 카테고리를 할 일로 한다.
+2. 검색버튼을 누른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 숫자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학1, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학1
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 대문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 소문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 대문자와 숫자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A1, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학A1
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명에 알파벳 소문자와 숫자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a1, 한혁수, 월요일/3-5, 2017/1, 수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016. 06.07</t>
+  </si>
+  <si>
+    <t>알림기능을 꺼놓아도 할일등록이 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발표;;소프트웨어공학
+마감기한:7월2일10시;;
+실제마감일:7월2일10시
+알림기능 꺼짐;;진행중;;매우중요
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표,
+소프트웨어공학,
+7월 2일 10시,
+7월 2일 10시,
+알림기능 0월0일0시
+중요도 - 매우중요,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.07</t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC007</t>
+  </si>
+  <si>
+    <t>UC006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List가 등록시 과목 선택을 공란으로 선택해도 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 숫자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 알파벳 대문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 알파벳 소문자가 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO명을 입력하지 않았을 때 경고창이 
+발생하는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명에 알파벳대문자와숫 자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do List ToDo명 알파벳 소문자와 숫자가 함께 입력되도 등록 기능이 제대로 시행되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표1,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표A,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표a,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표A1,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표a1,
+소프트웨어공학,
+7월 2일 10시,
+드레스코드 정장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어공학a1
+한혁수 ; 월요일/3-5 ; 2017/1 ;
+수업시작 5분전 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>TC047</t>
+  </si>
+  <si>
+    <t>TC048</t>
+  </si>
+  <si>
+    <t>TC049</t>
+  </si>
+  <si>
+    <t>UC017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC015
+UC006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +1366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1447,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1246,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,15 +1695,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,7 +1739,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1676,169 +2117,225 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="41.25">
-      <c r="B1" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
-    <row r="4" spans="1:4" ht="20.25">
-      <c r="D4" s="19" t="s">
+    <row r="1" spans="1:4" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1">
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1856,14 +2353,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -1878,1021 +2375,1618 @@
     <col min="11" max="11" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="17" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="17" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="17" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B37" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="C38" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B46" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B47" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B48" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B49" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B51" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B52" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B53" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B55" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G56" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B9" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" ht="49.5">
-      <c r="B10" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B11" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" ht="49.5">
-      <c r="A12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B13" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B14" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="20" customFormat="1" ht="82.5">
-      <c r="B15" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" ht="66">
-      <c r="B16" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B17" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B18" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B19" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="115.5">
-      <c r="B20" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B21" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B22" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B23" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B24" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B25" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B26" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B27" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B28" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B29" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="20" customFormat="1" ht="82.5">
-      <c r="B30" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B31" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B32" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B33" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B34" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="20" customFormat="1" ht="66">
-      <c r="B35" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="66">
-      <c r="B36" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="66">
-      <c r="B37" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="K38" s="24"/>
+      <c r="H56" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I13 I24:I28">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
